--- a/biology/Botanique/Érable_de_Pennsylvanie/Érable_de_Pennsylvanie.xlsx
+++ b/biology/Botanique/Érable_de_Pennsylvanie/Érable_de_Pennsylvanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rable_de_Pennsylvanie</t>
+          <t>Érable_de_Pennsylvanie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer pensylvanicum
 L’érable de Pennsylvanie ou érable jaspé (Acer pensylvanicum) est l'unique «érable à peau de serpent» qui ne soit pas originaire d'Asie mais du nord-est de l’Amérique du Nord (et principalement de Pennsylvanie). Il appartient à la section Macrantha de la classification des érables et a été introduit en Europe en 1755. L’équivalent asiatique est Acer tegmentosum.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rable_de_Pennsylvanie</t>
+          <t>Érable_de_Pennsylvanie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De croissance rapide, il pousse dans les bois humides de l'est du Canada où il est très apprécié des orignaux (d'où son nom anglais de "moosewood"). Il peut mesurer jusqu'à 10 mètres de haut et vivre une centaine d'années. Il est très rustique (jusqu'à -15 °C) et pousse aussi bien au soleil qu'en zone ombragée.
 Ses feuilles vertes à pétiole rouge virent au jaune clair en automne.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rable_de_Pennsylvanie</t>
+          <t>Érable_de_Pennsylvanie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Zone de la forêt feuillue; en Gaspésie, dans la vallée du Saguenay et l'île d'Anticosti.
 </t>
